--- a/data/GASTOS_GROUPED.xlsx
+++ b/data/GASTOS_GROUPED.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
+      <selection pane="topLeft" activeCell="Z6" activeCellId="0" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,16 +499,16 @@
         <v>607.9</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>212</v>
+        <v>165.6</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>424</v>
+        <v>331.2</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>636</v>
+        <v>496.8</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>302</v>
@@ -520,43 +520,43 @@
         <v>607.9</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>819.9</v>
+        <v>773.5</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>1031.9</v>
+        <v>939.1</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1243.9</v>
+        <v>1104.7</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>33.5485651214128</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>45.2483443708609</v>
+        <v>42.6876379690949</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>56.9481236203091</v>
+        <v>51.826710816777</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>68.6479028697572</v>
+        <v>60.9657836644592</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>819.9</v>
+        <v>773.5</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1031.9</v>
+        <v>939.1</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>1243.9</v>
+        <v>1104.7</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>45.2483443708609</v>
+        <v>42.6876379690949</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>56.9481236203091</v>
+        <v>51.826710816777</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>68.6479028697572</v>
+        <v>60.9657836644592</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         <v>687</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>245.8</v>
+        <v>187.7</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>491.6</v>
+        <v>375.4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>737.4</v>
+        <v>563.1</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>360</v>
@@ -600,43 +600,43 @@
         <v>687</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>932.8</v>
+        <v>874.7</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1178.6</v>
+        <v>1062.4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1424.4</v>
+        <v>1250.1</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>31.8055555555556</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>43.1851851851852</v>
+        <v>40.4953703703704</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>54.5648148148148</v>
+        <v>49.1851851851852</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>65.9444444444444</v>
+        <v>57.875</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>932.8</v>
+        <v>874.7</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1178.6</v>
+        <v>1062.4</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>1424.4</v>
+        <v>1250.1</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>43.1851851851852</v>
+        <v>40.4953703703704</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>54.5648148148148</v>
+        <v>49.1851851851852</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>65.9444444444444</v>
+        <v>57.875</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>0</v>
@@ -739,16 +739,16 @@
         <v>895</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>278</v>
+        <v>244.5</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>834</v>
+        <v>733.5</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>480</v>
@@ -760,43 +760,43 @@
         <v>895</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1173</v>
+        <v>1139.5</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1451</v>
+        <v>1384</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1729</v>
+        <v>1628.5</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>31.0763888888889</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>40.7291666666667</v>
+        <v>39.5659722222222</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>50.3819444444444</v>
+        <v>48.0555555555556</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>60.0347222222222</v>
+        <v>56.5451388888889</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>1173</v>
+        <v>1139.5</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>1451</v>
+        <v>1384</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>1729</v>
+        <v>1628.5</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>40.7291666666667</v>
+        <v>39.5659722222222</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>50.3819444444444</v>
+        <v>48.0555555555556</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>60.0347222222222</v>
+        <v>56.5451388888889</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>919.9</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>257.25</v>
+        <v>250.6</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>514.5</v>
+        <v>501.2</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>771.75</v>
+        <v>751.8</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>520</v>
@@ -840,43 +840,43 @@
         <v>919.9</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1177.15</v>
+        <v>1170.5</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1434.4</v>
+        <v>1421.1</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1691.65</v>
+        <v>1671.7</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>29.4839743589744</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>37.7291666666667</v>
+        <v>37.5160256410256</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>45.974358974359</v>
+        <v>45.5480769230769</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>54.2195512820513</v>
+        <v>53.5801282051282</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>1177.15</v>
+        <v>1170.5</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>1434.4</v>
+        <v>1421.1</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>1691.65</v>
+        <v>1671.7</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>37.7291666666667</v>
+        <v>37.5160256410256</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>45.974358974359</v>
+        <v>45.5480769230769</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>54.2195512820513</v>
+        <v>53.5801282051282</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>1077.6</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>352.4</v>
+        <v>294.5</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>704.8</v>
+        <v>589</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1057.2</v>
+        <v>883.5</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>600</v>
@@ -920,43 +920,43 @@
         <v>1077.6</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1430</v>
+        <v>1372.1</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1782.4</v>
+        <v>1666.6</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2134.8</v>
+        <v>1961.1</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>29.9333333333333</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>39.7222222222222</v>
+        <v>38.1138888888889</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>49.5111111111111</v>
+        <v>46.2944444444444</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>59.3</v>
+        <v>54.475</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>1430</v>
+        <v>1372.1</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1782.4</v>
+        <v>1666.6</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>2134.8</v>
+        <v>1961.1</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>39.7222222222222</v>
+        <v>38.1138888888889</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>49.5111111111111</v>
+        <v>46.2944444444444</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>59.3</v>
+        <v>54.475</v>
       </c>
       <c r="X7" s="0" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>1242</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>356</v>
+        <v>339.3</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>712</v>
+        <v>678.6</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1068</v>
+        <v>1017.9</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>760</v>
@@ -1080,43 +1080,43 @@
         <v>1242</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1598</v>
+        <v>1581.3</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1954</v>
+        <v>1920.6</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2310</v>
+        <v>2259.9</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>27.2368421052632</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>35.0438596491228</v>
+        <v>34.6776315789474</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>42.8508771929825</v>
+        <v>42.1184210526316</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>50.6578947368421</v>
+        <v>49.5592105263158</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1598</v>
+        <v>1581.3</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>1954</v>
+        <v>1920.6</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>2310</v>
+        <v>2259.9</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>35.0438596491228</v>
+        <v>34.6776315789474</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>42.8508771929825</v>
+        <v>42.1184210526316</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>50.6578947368421</v>
+        <v>49.5592105263158</v>
       </c>
       <c r="X9" s="0" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>1308</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>441.6</v>
+        <v>356.4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>883.2</v>
+        <v>712.8</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1324.8</v>
+        <v>1069.2</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>830</v>
@@ -1160,43 +1160,43 @@
         <v>1308</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1749.6</v>
+        <v>1664.4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>2191.2</v>
+        <v>2020.8</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2632.8</v>
+        <v>2377.2</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>26.2650602409639</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>35.1325301204819</v>
+        <v>33.421686746988</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>44</v>
+        <v>40.5783132530121</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>52.8674698795181</v>
+        <v>47.7349397590362</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1749.6</v>
+        <v>1664.4</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>2191.2</v>
+        <v>2020.8</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>2632.8</v>
+        <v>2377.2</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>35.1325301204819</v>
+        <v>33.421686746988</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>44</v>
+        <v>40.5783132530121</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>52.8674698795181</v>
+        <v>47.7349397590362</v>
       </c>
       <c r="X10" s="0" t="n">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>1462.4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>403.6</v>
+        <v>399.6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>807.2</v>
+        <v>799.2</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1210.8</v>
+        <v>1198.8</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>930</v>
@@ -1240,43 +1240,43 @@
         <v>1462.4</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>2269.6</v>
+        <v>2261.6</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>2673.2</v>
+        <v>2661.2</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>26.2078853046595</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>33.4408602150538</v>
+        <v>33.3691756272401</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>40.673835125448</v>
+        <v>40.5304659498208</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>47.9068100358423</v>
+        <v>47.6917562724014</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>2269.6</v>
+        <v>2261.6</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>2673.2</v>
+        <v>2661.2</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>33.4408602150538</v>
+        <v>33.3691756272401</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>40.673835125448</v>
+        <v>40.5304659498208</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>47.9068100358423</v>
+        <v>47.6917562724014</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>1500</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>537</v>
+        <v>409.8</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1074</v>
+        <v>819.6</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1611</v>
+        <v>1229.4</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1020</v>
@@ -1320,43 +1320,43 @@
         <v>1500</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2037</v>
+        <v>1909.8</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>2574</v>
+        <v>2319.6</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>3111</v>
+        <v>2729.4</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>24.5098039215686</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>33.2843137254902</v>
+        <v>31.2058823529412</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>42.0588235294118</v>
+        <v>37.9019607843137</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>50.8333333333333</v>
+        <v>44.5980392156863</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>2037</v>
+        <v>1909.8</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>2574</v>
+        <v>2319.6</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>3111</v>
+        <v>2729.4</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>33.2843137254902</v>
+        <v>31.2058823529412</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>42.0588235294118</v>
+        <v>37.9019607843137</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>50.8333333333333</v>
+        <v>44.5980392156863</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>1665.4</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>544</v>
+        <v>453.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1088</v>
+        <v>907.6</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1632</v>
+        <v>1361.4</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1244</v>
@@ -1480,43 +1480,43 @@
         <v>1665.4</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>2209.4</v>
+        <v>2119.2</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>2753.4</v>
+        <v>2573</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>3297.4</v>
+        <v>3026.8</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>22.3124330117899</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>29.6007502679528</v>
+        <v>28.3922829581994</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>36.8890675241158</v>
+        <v>34.4721329046088</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>44.1773847802787</v>
+        <v>40.5519828510182</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>2209.4</v>
+        <v>2119.2</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>2753.4</v>
+        <v>2573</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>3297.4</v>
+        <v>3026.8</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>29.6007502679528</v>
+        <v>28.3922829581994</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>36.8890675241158</v>
+        <v>34.4721329046088</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>44.1773847802787</v>
+        <v>40.5519828510182</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>0</v>
@@ -1619,16 +1619,16 @@
         <v>1806</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>598.9</v>
+        <v>493.4</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1197.8</v>
+        <v>986.8</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1796.7</v>
+        <v>1480.2</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1448</v>
@@ -1640,43 +1640,43 @@
         <v>1806</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>2404.9</v>
+        <v>2299.4</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>3003.8</v>
+        <v>2792.8</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>3602.7</v>
+        <v>3286.2</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>20.7872928176796</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>27.6807090239411</v>
+        <v>26.4663904235727</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>34.5741252302026</v>
+        <v>32.1454880294659</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>41.4675414364641</v>
+        <v>37.8245856353591</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>2404.9</v>
+        <v>2299.4</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>3003.8</v>
+        <v>2792.8</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>3602.7</v>
+        <v>3286.2</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>27.6807090239411</v>
+        <v>26.4663904235727</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>34.5741252302026</v>
+        <v>32.1454880294659</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>41.4675414364641</v>
+        <v>37.8245856353591</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>0</v>
@@ -1699,16 +1699,16 @@
         <v>1990</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>630</v>
+        <v>543.75</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1260</v>
+        <v>1087.5</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1890</v>
+        <v>1631.25</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1576</v>
@@ -1720,43 +1720,43 @@
         <v>1990</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>2620</v>
+        <v>2533.75</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>3250</v>
+        <v>3077.5</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>3880</v>
+        <v>3621.25</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>21.0448392554992</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>27.7072758037225</v>
+        <v>26.7951565143824</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>34.3697123519459</v>
+        <v>32.5454737732657</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>41.0321489001692</v>
+        <v>38.2957910321489</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>2620</v>
+        <v>2533.75</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>3250</v>
+        <v>3077.5</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>3880</v>
+        <v>3621.25</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>27.7072758037225</v>
+        <v>26.7951565143824</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>34.3697123519459</v>
+        <v>32.5454737732657</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>41.0321489001692</v>
+        <v>38.2957910321489</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>2304.1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>646.5</v>
+        <v>628</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1293</v>
+        <v>1256</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1939.5</v>
+        <v>1884</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1760</v>
@@ -1800,43 +1800,43 @@
         <v>2304.1</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>2950.6</v>
+        <v>2932.1</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>3597.1</v>
+        <v>3560.1</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>4243.6</v>
+        <v>4188.1</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>21.8191287878788</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>27.9412878787879</v>
+        <v>27.7660984848485</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>34.063446969697</v>
+        <v>33.7130681818182</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>40.1856060606061</v>
+        <v>39.6600378787879</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>2950.6</v>
+        <v>2932.1</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>3597.1</v>
+        <v>3560.1</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>4243.6</v>
+        <v>4188.1</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>27.9412878787879</v>
+        <v>27.7660984848485</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>34.063446969697</v>
+        <v>33.7130681818182</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>40.1856060606061</v>
+        <v>39.6600378787879</v>
       </c>
       <c r="X18" s="0" t="n">
         <v>0</v>
@@ -1859,16 +1859,16 @@
         <v>2425.5</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>835.45</v>
+        <v>688.45</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1670.9</v>
+        <v>1376.9</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2506.35</v>
+        <v>2065.35</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1874</v>
@@ -1880,43 +1880,43 @@
         <v>2425.5</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>3260.95</v>
+        <v>3113.95</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>4096.4</v>
+        <v>3802.4</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>4931.85</v>
+        <v>4490.85</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>21.5715048025614</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>29.0016897901103</v>
+        <v>27.6943258626823</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>36.4318747776592</v>
+        <v>33.8171469228033</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>43.8620597652081</v>
+        <v>39.9399679829242</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>3260.95</v>
+        <v>3113.95</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>4096.4</v>
+        <v>3802.4</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>4931.85</v>
+        <v>4490.85</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>29.0016897901103</v>
+        <v>27.6943258626823</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>36.4318747776592</v>
+        <v>33.8171469228033</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>43.8620597652081</v>
+        <v>39.9399679829242</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>27</v>
@@ -1939,16 +1939,16 @@
         <v>2470</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>838.5</v>
+        <v>726.55</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1677</v>
+        <v>1453.1</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2515.5</v>
+        <v>2179.65</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1908</v>
@@ -1960,43 +1960,43 @@
         <v>2470</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>3308.5</v>
+        <v>3196.55</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>4147</v>
+        <v>3923.1</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>4985.5</v>
+        <v>4649.65</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>21.575821104123</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>28.9002445842069</v>
+        <v>27.9223445143257</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>36.2246680642907</v>
+        <v>34.2688679245283</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>43.5490915443746</v>
+        <v>40.615391334731</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>3308.5</v>
+        <v>3196.55</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>4147</v>
+        <v>3923.1</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>4985.5</v>
+        <v>4649.65</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>28.9002445842069</v>
+        <v>27.9223445143257</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>36.2246680642907</v>
+        <v>34.2688679245283</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>43.5490915443746</v>
+        <v>40.615391334731</v>
       </c>
       <c r="X20" s="0" t="n">
         <v>52</v>
@@ -2179,16 +2179,16 @@
         <v>2425.8</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>732.05</v>
+        <v>674.2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1464.1</v>
+        <v>1348.4</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>2196.15</v>
+        <v>2022.6</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>2200</v>
@@ -2200,43 +2200,43 @@
         <v>2425.8</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>3157.85</v>
+        <v>3100</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>3889.9</v>
+        <v>3774.2</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>4621.95</v>
+        <v>4448.4</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>18.3772727272727</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>23.9231060606061</v>
+        <v>23.4848484848485</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>29.4689393939394</v>
+        <v>28.5924242424243</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>35.0147727272727</v>
+        <v>33.7</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>3157.85</v>
+        <v>3100</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>3889.9</v>
+        <v>3774.2</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>4621.95</v>
+        <v>4448.4</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>23.9231060606061</v>
+        <v>23.4848484848485</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>29.4689393939394</v>
+        <v>28.5924242424243</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>35.0147727272727</v>
+        <v>33.7</v>
       </c>
       <c r="X23" s="0" t="n">
         <v>12</v>
@@ -2339,7 +2339,7 @@
         <v>2148.62</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>1389.02</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
